--- a/data/relatorio_clube_posto_214.xlsx
+++ b/data/relatorio_clube_posto_214.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\combustiveis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{37879A7F-9E6A-4DD1-B6A1-E0E97E70E548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC9F08C-ACD6-4441-9915-D09532E10AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_excel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Paulo Vitor Bettini de Paiva Lima</author>
   </authors>
   <commentList>
-    <comment ref="O35" authorId="0" shapeId="0">
+    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P35" authorId="0" shapeId="0">
+    <comment ref="P35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,13 +705,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,8 +722,6 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="12" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -755,7 +767,89 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -773,27 +867,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:R35" totalsRowShown="0">
-  <autoFilter ref="A2:R35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:R35" totalsRowShown="0">
+  <autoFilter ref="A2:R35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="data" dataDxfId="0"/>
-    <tableColumn id="2" name="semana"/>
-    <tableColumn id="3" name="tipo"/>
-    <tableColumn id="4" name="quantidade"/>
-    <tableColumn id="5" name="preço"/>
-    <tableColumn id="6" name="qtd * preço"/>
-    <tableColumn id="7" name="variação entre clube _x000a_e preço minímo"/>
-    <tableColumn id="9" name="pms médio"/>
-    <tableColumn id="10" name="pms mínimo"/>
-    <tableColumn id="11" name="pms máximo"/>
-    <tableColumn id="12" name="desvio padrão"/>
-    <tableColumn id="14" name="preço médio"/>
-    <tableColumn id="15" name="preço mínimo"/>
-    <tableColumn id="16" name="preço máximo"/>
-    <tableColumn id="18" name="clube"/>
-    <tableColumn id="19" name="tc médio"/>
-    <tableColumn id="20" name="tc mínimo"/>
-    <tableColumn id="21" name="tc máximo"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="data" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="semana"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tipo"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="quantidade"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="preço"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="qtd * preço"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="variação entre clube _x000a_e preço minímo"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="pms médio"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="pms mínimo"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="pms máximo"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="desvio padrão"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="preço médio"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="preço mínimo"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="preço máximo"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="clube"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="tc médio"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="tc mínimo"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="tc máximo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1095,11 +1189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,34 +1216,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1161,7 +1255,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -1220,20 +1314,20 @@
       <c r="D3">
         <v>63.947000000000003</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>6.851</v>
       </c>
       <c r="F3">
         <v>438.1</v>
       </c>
       <c r="G3">
-        <f>E3-I3</f>
+        <f t="shared" ref="G3:G34" si="0">E3-I3</f>
         <v>0.15200000000000014</v>
       </c>
       <c r="H3">
         <v>7.2290000000000001</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>6.6989999999999998</v>
       </c>
       <c r="J3">
@@ -1277,20 +1371,20 @@
       <c r="D4">
         <v>48.527000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>6.7960000000000003</v>
       </c>
       <c r="F4">
         <v>329.78899999999999</v>
       </c>
       <c r="G4">
-        <f>E4-I4</f>
+        <f t="shared" si="0"/>
         <v>-0.10299999999999976</v>
       </c>
       <c r="H4">
         <v>7.548</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>6.899</v>
       </c>
       <c r="J4">
@@ -1334,20 +1428,20 @@
       <c r="D5">
         <v>51.646999999999998</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>7.5919999999999996</v>
       </c>
       <c r="F5">
         <v>392.10399999999998</v>
       </c>
       <c r="G5">
-        <f>E5-I5</f>
+        <f t="shared" si="0"/>
         <v>0.3149999999999995</v>
       </c>
       <c r="H5">
         <v>7.6159999999999997</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>7.2770000000000001</v>
       </c>
       <c r="J5">
@@ -1391,20 +1485,20 @@
       <c r="D6">
         <v>54.524999999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>6.7960000000000003</v>
       </c>
       <c r="F6">
         <v>370.55099999999999</v>
       </c>
       <c r="G6">
-        <f>E6-I6</f>
+        <f t="shared" si="0"/>
         <v>-0.6509999999999998</v>
       </c>
       <c r="H6">
         <v>7.7039999999999997</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>7.4470000000000001</v>
       </c>
       <c r="J6">
@@ -1448,20 +1542,20 @@
       <c r="D7">
         <v>60.575000000000003</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>6.91</v>
       </c>
       <c r="F7">
         <v>418.57299999999998</v>
       </c>
       <c r="G7">
-        <f>E7-I7</f>
+        <f t="shared" si="0"/>
         <v>-0.53699999999999992</v>
       </c>
       <c r="H7">
         <v>7.6989999999999998</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>7.4470000000000001</v>
       </c>
       <c r="J7">
@@ -1505,20 +1599,20 @@
       <c r="D8">
         <v>62.656999999999996</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>6.91</v>
       </c>
       <c r="F8">
         <v>432.959</v>
       </c>
       <c r="G8">
-        <f>E8-I8</f>
+        <f t="shared" si="0"/>
         <v>-0.53000000000000025</v>
       </c>
       <c r="H8">
         <v>7.63</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>7.44</v>
       </c>
       <c r="J8">
@@ -1562,20 +1656,20 @@
       <c r="D9">
         <v>46.954999999999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>6.88</v>
       </c>
       <c r="F9">
         <v>323.05</v>
       </c>
       <c r="G9">
-        <f>E9-I9</f>
+        <f t="shared" si="0"/>
         <v>-0.16999999999999993</v>
       </c>
       <c r="H9">
         <v>7.3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>7.05</v>
       </c>
       <c r="J9">
@@ -1619,20 +1713,20 @@
       <c r="D10">
         <v>60.96</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>6.88</v>
       </c>
       <c r="F10">
         <v>419.404</v>
       </c>
       <c r="G10">
-        <f>E10-I10</f>
+        <f t="shared" si="0"/>
         <v>-3.0000000000000249E-2</v>
       </c>
       <c r="H10">
         <v>7.25</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>6.91</v>
       </c>
       <c r="J10">
@@ -1676,20 +1770,20 @@
       <c r="D11">
         <v>40.875</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>6.88</v>
       </c>
       <c r="F11">
         <v>281.22000000000003</v>
       </c>
       <c r="G11">
-        <f>E11-I11</f>
+        <f t="shared" si="0"/>
         <v>-0.11000000000000032</v>
       </c>
       <c r="H11">
         <v>7.73</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>6.99</v>
       </c>
       <c r="J11">
@@ -1733,20 +1827,20 @@
       <c r="D12">
         <v>60.305</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>6.88</v>
       </c>
       <c r="F12">
         <v>414.89800000000002</v>
       </c>
       <c r="G12">
-        <f>E12-I12</f>
+        <f t="shared" si="0"/>
         <v>-0.58999999999999986</v>
       </c>
       <c r="H12">
         <v>7.52</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>7.47</v>
       </c>
       <c r="J12">
@@ -1790,20 +1884,20 @@
       <c r="D13">
         <v>47.784999999999997</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>6.98</v>
       </c>
       <c r="F13">
         <v>333.53899999999999</v>
       </c>
       <c r="G13">
-        <f>E13-I13</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000675E-2</v>
       </c>
       <c r="H13">
         <v>7.21</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>6.97</v>
       </c>
       <c r="J13">
@@ -1847,20 +1941,20 @@
       <c r="D14">
         <v>60.722000000000001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>6.16</v>
       </c>
       <c r="F14">
         <v>374.04700000000003</v>
       </c>
       <c r="G14">
-        <f>E14-I14</f>
+        <f t="shared" si="0"/>
         <v>0.37000000000000011</v>
       </c>
       <c r="H14">
         <v>6.27</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>5.79</v>
       </c>
       <c r="J14">
@@ -1904,20 +1998,20 @@
       <c r="D15">
         <v>50.587000000000003</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>5.39</v>
       </c>
       <c r="F15">
         <v>272.66300000000001</v>
       </c>
       <c r="G15">
-        <f>E15-I15</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="H15">
         <v>5.62</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>5.37</v>
       </c>
       <c r="J15">
@@ -1961,20 +2055,20 @@
       <c r="D16">
         <v>61.012</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>5.19</v>
       </c>
       <c r="F16">
         <v>316.65199999999999</v>
       </c>
       <c r="G16">
-        <f>E16-I16</f>
+        <f t="shared" si="0"/>
         <v>-0.47999999999999954</v>
       </c>
       <c r="H16">
         <v>5.91</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>5.67</v>
       </c>
       <c r="J16">
@@ -2018,20 +2112,20 @@
       <c r="D17">
         <v>60.27</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>5.09</v>
       </c>
       <c r="F17">
         <v>306.774</v>
       </c>
       <c r="G17">
-        <f>E17-I17</f>
+        <f t="shared" si="0"/>
         <v>-0.10000000000000053</v>
       </c>
       <c r="H17">
         <v>5.41</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>5.19</v>
       </c>
       <c r="J17">
@@ -2075,20 +2169,20 @@
       <c r="D18">
         <v>50.054000000000002</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>5.03</v>
       </c>
       <c r="F18">
         <v>251.77099999999999</v>
       </c>
       <c r="G18">
-        <f>E18-I18</f>
+        <f t="shared" si="0"/>
         <v>-9.9999999999997868E-3</v>
       </c>
       <c r="H18">
         <v>5.43</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <v>5.04</v>
       </c>
       <c r="J18">
@@ -2132,20 +2226,20 @@
       <c r="D19">
         <v>56.902000000000001</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>4.8899999999999997</v>
       </c>
       <c r="F19">
         <v>278.25</v>
       </c>
       <c r="G19">
-        <f>E19-I19</f>
+        <f t="shared" si="0"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="H19">
         <v>5.03</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>4.9400000000000004</v>
       </c>
       <c r="J19">
@@ -2189,20 +2283,20 @@
       <c r="D20">
         <v>53.756999999999998</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>4.82</v>
       </c>
       <c r="F20">
         <v>259.108</v>
       </c>
       <c r="G20">
-        <f>E20-I20</f>
+        <f t="shared" si="0"/>
         <v>-6.9999999999999396E-2</v>
       </c>
       <c r="H20">
         <v>5.22</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
         <v>4.8899999999999997</v>
       </c>
       <c r="J20">
@@ -2246,20 +2340,20 @@
       <c r="D21">
         <v>60.642000000000003</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>4.59</v>
       </c>
       <c r="F21">
         <v>278.346</v>
       </c>
       <c r="G21">
-        <f>E21-I21</f>
+        <f t="shared" si="0"/>
         <v>-8.9999999999999858E-2</v>
       </c>
       <c r="H21">
         <v>4.82</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21">
         <v>4.68</v>
       </c>
       <c r="J21">
@@ -2303,20 +2397,20 @@
       <c r="D22">
         <v>60.8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>4.54</v>
       </c>
       <c r="F22">
         <v>276.03199999999998</v>
       </c>
       <c r="G22">
-        <f>E22-I22</f>
+        <f t="shared" si="0"/>
         <v>-3.0000000000000249E-2</v>
       </c>
       <c r="H22">
         <v>4.8600000000000003</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22">
         <v>4.57</v>
       </c>
       <c r="J22">
@@ -2360,20 +2454,20 @@
       <c r="D23">
         <v>61.145000000000003</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>4.49</v>
       </c>
       <c r="F23">
         <v>274.541</v>
       </c>
       <c r="G23">
-        <f>E23-I23</f>
+        <f t="shared" si="0"/>
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="H23">
         <v>4.8600000000000003</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23">
         <v>4.57</v>
       </c>
       <c r="J23">
@@ -2417,20 +2511,20 @@
       <c r="D24">
         <v>61.171999999999997</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>4.49</v>
       </c>
       <c r="F24">
         <v>274.66199999999998</v>
       </c>
       <c r="G24">
-        <f>E24-I24</f>
+        <f t="shared" si="0"/>
         <v>-0.39999999999999947</v>
       </c>
       <c r="H24">
         <v>4.99</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24">
         <v>4.8899999999999997</v>
       </c>
       <c r="J24">
@@ -2474,20 +2568,20 @@
       <c r="D25">
         <v>60.521999999999998</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>4.55</v>
       </c>
       <c r="F25">
         <v>275.375</v>
       </c>
       <c r="G25">
-        <f>E25-I25</f>
+        <f t="shared" si="0"/>
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="H25">
         <v>5.04</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25">
         <v>4.63</v>
       </c>
       <c r="J25">
@@ -2531,20 +2625,20 @@
       <c r="D26">
         <v>58.284999999999997</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>4.55</v>
       </c>
       <c r="F26">
         <v>265.19600000000003</v>
       </c>
       <c r="G26">
-        <f>E26-I26</f>
+        <f t="shared" si="0"/>
         <v>-7.0000000000000284E-2</v>
       </c>
       <c r="H26">
         <v>4.9400000000000004</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>4.62</v>
       </c>
       <c r="J26">
@@ -2588,20 +2682,20 @@
       <c r="D27">
         <v>51.006999999999998</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>4.6500000000000004</v>
       </c>
       <c r="F27">
         <v>237.18199999999999</v>
       </c>
       <c r="G27">
-        <f>E27-I27</f>
+        <f t="shared" si="0"/>
         <v>0.3100000000000005</v>
       </c>
       <c r="H27">
         <v>5.05</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27">
         <v>4.34</v>
       </c>
       <c r="J27">
@@ -2645,20 +2739,20 @@
       <c r="D28">
         <v>53.067</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>4.6500000000000004</v>
       </c>
       <c r="F28">
         <v>246.761</v>
       </c>
       <c r="G28">
-        <f>E28-I28</f>
+        <f t="shared" si="0"/>
         <v>-0.19999999999999929</v>
       </c>
       <c r="H28">
         <v>5.27</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28">
         <v>4.8499999999999996</v>
       </c>
       <c r="J28">
@@ -2702,20 +2796,20 @@
       <c r="D29">
         <v>62.406999999999996</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>4.6900000000000004</v>
       </c>
       <c r="F29">
         <v>292.68799999999999</v>
       </c>
       <c r="G29">
-        <f>E29-I29</f>
+        <f t="shared" si="0"/>
         <v>-0.29999999999999982</v>
       </c>
       <c r="H29">
         <v>5.07</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29">
         <v>4.99</v>
       </c>
       <c r="J29">
@@ -2759,20 +2853,20 @@
       <c r="D30">
         <v>46.771999999999998</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>4.6900000000000004</v>
       </c>
       <c r="F30">
         <v>219.36</v>
       </c>
       <c r="G30">
-        <f>E30-I30</f>
+        <f t="shared" si="0"/>
         <v>-0.25999999999999979</v>
       </c>
       <c r="H30">
         <v>5.18</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30">
         <v>4.95</v>
       </c>
       <c r="J30">
@@ -2816,20 +2910,20 @@
       <c r="D31">
         <v>63.585000000000001</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>4.75</v>
       </c>
       <c r="F31">
         <v>302.02800000000002</v>
       </c>
       <c r="G31">
-        <f>E31-I31</f>
+        <f t="shared" si="0"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="H31">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31">
         <v>4.79</v>
       </c>
       <c r="J31">
@@ -2873,20 +2967,20 @@
       <c r="D32">
         <v>62.09</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>4.6399999999999997</v>
       </c>
       <c r="F32">
         <v>288.09699999999998</v>
       </c>
       <c r="G32">
-        <f>E32-I32</f>
+        <f t="shared" si="0"/>
         <v>0.54999999999999982</v>
       </c>
       <c r="H32">
         <v>4.79</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32">
         <v>4.09</v>
       </c>
       <c r="J32">
@@ -2930,20 +3024,20 @@
       <c r="D33">
         <v>46.95</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>4.6399999999999997</v>
       </c>
       <c r="F33">
         <v>217.84800000000001</v>
       </c>
       <c r="G33">
-        <f>E33-I33</f>
+        <f t="shared" si="0"/>
         <v>-0.35000000000000053</v>
       </c>
       <c r="H33">
         <v>5.15</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33">
         <v>4.99</v>
       </c>
       <c r="J33">
@@ -2987,20 +3081,20 @@
       <c r="D34">
         <v>62.13</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>4.58</v>
       </c>
       <c r="F34">
         <v>284.55500000000001</v>
       </c>
       <c r="G34">
-        <f>E34-I34</f>
+        <f t="shared" si="0"/>
         <v>-0.41000000000000014</v>
       </c>
       <c r="H34">
         <v>5.15</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34">
         <v>4.99</v>
       </c>
       <c r="J34">
@@ -3041,11 +3135,11 @@
         <v>-386.72000000000116</v>
       </c>
       <c r="Q35">
-        <f t="shared" ref="Q35:R35" si="0">$O$35-Q34</f>
+        <f t="shared" ref="Q35:R35" si="1">$O$35-Q34</f>
         <v>169.85699999999997</v>
       </c>
       <c r="R35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1043.3230000000003</v>
       </c>
     </row>
@@ -3057,22 +3151,24 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:E34">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>E3&gt;=I3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I34">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>I3&gt;=E3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:G34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFFFFF00"/>
+        <color theme="0"/>
         <color rgb="FF7030A0"/>
       </colorScale>
     </cfRule>

--- a/data/relatorio_clube_posto_214.xlsx
+++ b/data/relatorio_clube_posto_214.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\combustiveis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC9F08C-ACD6-4441-9915-D09532E10AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FF3F0-5677-40C7-8D6B-6EC1E2909391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +321,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -705,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,6 +730,7 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="12" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1190,16 +1199,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -3126,6 +3136,18 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f>COUNTIF(G3:G34,"&gt;=0")</f>
+        <v>7</v>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f>_xlfn.CONCAT("clube tem o preço mais baixo ",((E35*100)/I35),"%")</f>
+        <v>clube tem o preço mais baixo 28%</v>
+      </c>
+      <c r="I35">
+        <f>COUNTIF(G3:G34,"&lt;0")</f>
+        <v>25</v>
+      </c>
       <c r="O35">
         <f>O34+400</f>
         <v>10346.123</v>
@@ -3142,6 +3164,9 @@
         <f t="shared" si="1"/>
         <v>-1043.3230000000003</v>
       </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
